--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2058088.793340666</v>
+        <v>2133618.463005472</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>233.0335624889747</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>134.9314523901459</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.8844947709057</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>124.1699884042476</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>350.666752269543</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>81.4783603621032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>50.13027643502261</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>15.72604893648648</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>66.28201763710416</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1181,7 +1183,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>271.2281977424745</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>17.68532773870687</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>48.27083703815669</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1531,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>217.2180523841303</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>149.0799667719507</v>
+        <v>135.5535868730193</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2005,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>253.4345021185962</v>
+        <v>276.7628978440584</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>177.9073576508141</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>51.03700640388215</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>14.7366432835706</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>108.3380852219939</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>66.140852155354</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>170.5809693952293</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>89.61819542350003</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>143.3158222056514</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>80.75310111984422</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.86494278824917</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>89.31984007417549</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>283.3580910135614</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>88.86494278824944</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3955,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>175.0698676614152</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>155.8385935972304</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>206.3159295446101</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1487.242648509747</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1118.280131569335</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1118.280131569335</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1118.280131569335</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>707.2942267797278</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>289.3304186779146</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4336,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2075.886732147294</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1873.842488573869</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.1897464970883</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C4" t="n">
-        <v>359.1897464970883</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D4" t="n">
-        <v>359.1897464970883</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>359.1897464970883</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>359.1897464970883</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>190.1899462354207</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>190.1899462354207</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>602.704753495073</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406185</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.1897464970883</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2189.908715988822</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.200144220494</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>319.1723320447962</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="G7" t="n">
         <v>99.59950625323012</v>
@@ -4723,52 +4725,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124031</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124031</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124031</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>320.3920853967602</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>320.3920853967602</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1019.519018857857</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>1019.519018857857</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1019.519018857857</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1019.519018857857</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4799,7 +4801,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>1719.57858496549</v>
       </c>
       <c r="X8" t="n">
-        <v>1796.25819089779</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y8" t="n">
-        <v>1406.118858921979</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C10" t="n">
-        <v>680.8480976472212</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D10" t="n">
-        <v>530.7314582348854</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>382.8183646524922</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4996,16 +4998,16 @@
         <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>649.953643809393</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>649.953643809393</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>649.953643809393</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>429.1610646658629</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1029.666285013068</v>
+        <v>843.1711433963917</v>
       </c>
       <c r="C13" t="n">
-        <v>860.7301020851612</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1432.107328986838</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1432.107328986838</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1432.107328986838</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1432.107328986838</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.107328986838</v>
+        <v>1024.819608226631</v>
       </c>
       <c r="X13" t="n">
-        <v>1432.107328986838</v>
+        <v>1024.819608226631</v>
       </c>
       <c r="Y13" t="n">
-        <v>1211.314749843308</v>
+        <v>1024.819608226631</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>696.5850465240057</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>468.5954956259884</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.8029164824583</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>475.3232817706389</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X19" t="n">
-        <v>247.3337308726216</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.3337308726216</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,40 +5764,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341677</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.3570368996741</v>
+        <v>4094.598000559212</v>
       </c>
       <c r="C22" t="n">
-        <v>410.4208539717672</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="D22" t="n">
-        <v>260.3042145594314</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="E22" t="n">
-        <v>260.3042145594314</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="F22" t="n">
-        <v>260.3042145594314</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G22" t="n">
-        <v>260.3042145594314</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771461</v>
+        <v>4495.094981370231</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.787631771461</v>
+        <v>4495.094981370231</v>
       </c>
       <c r="X22" t="n">
-        <v>981.798080873444</v>
+        <v>4495.094981370231</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.0055017299138</v>
+        <v>4274.302402226701</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805475</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6072,19 +6074,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4203.729040834637</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C25" t="n">
-        <v>4034.79285790673</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D25" t="n">
-        <v>3884.676218494395</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="E25" t="n">
-        <v>3736.763124912001</v>
+        <v>112.1025897265188</v>
       </c>
       <c r="F25" t="n">
-        <v>3736.763124912001</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3568.587803231822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3568.587803231822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>4606.170084808407</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>4606.170084808407</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X25" t="n">
-        <v>4606.170084808407</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y25" t="n">
-        <v>4385.377505664876</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6266,10 +6268,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>164.0260330313505</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6415,19 +6417,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305959</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>241.9805482336712</v>
+        <v>3777.447355009191</v>
       </c>
       <c r="C31" t="n">
-        <v>241.9805482336712</v>
+        <v>3777.447355009191</v>
       </c>
       <c r="D31" t="n">
-        <v>241.9805482336712</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="E31" t="n">
-        <v>241.9805482336712</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="F31" t="n">
-        <v>241.9805482336712</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>4316.752914771445</v>
       </c>
       <c r="X31" t="n">
-        <v>241.9805482336712</v>
+        <v>4088.763363873428</v>
       </c>
       <c r="Y31" t="n">
-        <v>241.9805482336712</v>
+        <v>3867.970784729898</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,16 +6788,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>475.7924673804756</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1409.153702084923</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1409.153702084923</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1409.153702084923</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1409.153702084923</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1154.469213879036</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W34" t="n">
-        <v>865.0520438420759</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X34" t="n">
-        <v>637.0624929440586</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y34" t="n">
-        <v>416.2699138005285</v>
+        <v>475.7924673804756</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,40 +6925,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>167.8887746690279</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7126,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1212.69597660481</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>958.0114883989231</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>668.5943183619626</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>668.5943183619626</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.8017392184324</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="38">
@@ -7169,34 +7171,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515592</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="41">
@@ -7388,13 +7390,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
@@ -7406,7 +7408,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,22 +7435,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,19 +7487,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
         <v>2051.878056918008</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>498.168852875299</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7627,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7658,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7670,22 +7672,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7722,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>1341.503549752619</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V46" t="n">
-        <v>1341.503549752619</v>
+        <v>955.6558230762947</v>
       </c>
       <c r="W46" t="n">
-        <v>1341.503549752619</v>
+        <v>955.6558230762947</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.513998854602</v>
+        <v>955.6558230762947</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7214197110717</v>
+        <v>734.8632439327646</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>145.0294169142013</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>104.874910276575</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>91.23759968302096</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9483,25 +9485,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165108</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>104.6241510367947</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>29.47535963978228</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10434,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>32.78140656352457</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>381.3739760657742</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>392.1113620226429</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>360.5026862907247</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>131.7799578282492</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>69.30494595246074</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.75201340998657</v>
+        <v>44.278393308918</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23706,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>33.08849621799476</v>
+        <v>9.760100492532558</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.924622531123163</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>97.87682196365398</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24181,16 +24183,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>2.08116024227806</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>44.278393308918</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.00368395686547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>90.21378475843727</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>23.17774625772614</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24886,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>86.49371997878362</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.09940961554362</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>57.11412257239368</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25366,7 +25368,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>2.87926138501598</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>90.96703739368786</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25597,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25804,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>77.06777566241277</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3987588013469</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>45.8217137792179</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.2923323693</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862099.292332369</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="14">
@@ -26314,46 +26316,46 @@
         <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583911</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583909</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="H2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="I2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.2306459072</v>
       </c>
       <c r="K2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="M2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459073</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26399,7 +26401,7 @@
         <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26445,19 +26447,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="P4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-284256.6304060872</v>
+        <v>-284256.6304060871</v>
       </c>
       <c r="C6" t="n">
-        <v>305711.2488084571</v>
+        <v>305711.2488084573</v>
       </c>
       <c r="D6" t="n">
         <v>305711.2488084572</v>
@@ -26531,37 +26533,37 @@
         <v>-111432.7393665765</v>
       </c>
       <c r="F6" t="n">
-        <v>413727.2971103195</v>
+        <v>413727.2971103197</v>
       </c>
       <c r="G6" t="n">
         <v>413727.2971103197</v>
       </c>
       <c r="H6" t="n">
-        <v>413727.2971103193</v>
+        <v>413727.2971103195</v>
       </c>
       <c r="I6" t="n">
-        <v>413727.29711032</v>
+        <v>413727.2971103197</v>
       </c>
       <c r="J6" t="n">
-        <v>237304.077917727</v>
+        <v>237304.0779177269</v>
       </c>
       <c r="K6" t="n">
         <v>413727.2971103197</v>
       </c>
       <c r="L6" t="n">
-        <v>413727.2971103199</v>
+        <v>413727.2971103197</v>
       </c>
       <c r="M6" t="n">
-        <v>278926.2818764824</v>
+        <v>278926.2818764825</v>
       </c>
       <c r="N6" t="n">
         <v>413727.2971103197</v>
       </c>
       <c r="O6" t="n">
-        <v>413727.2971103198</v>
+        <v>413727.29711032</v>
       </c>
       <c r="P6" t="n">
-        <v>413727.2971103198</v>
+        <v>413727.2971103195</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26747,37 +26749,37 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>90.88921027538248</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>192.820806079989</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08112702143250772</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>162.1118858377301</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>31.26361780271878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>304.7595782939504</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>117.1795258240283</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>270.7969494001045</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>340.5940281046073</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>78.01277097493846</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>149.561493359921</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>203.8668062856713</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>138.3897561047525</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>438.0694836745878</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>373.6013019241291</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145238</v>
+        <v>532.9342021211286</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507422</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>353.881855992819</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>180.0507982277215</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37087,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>239.8748214950492</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>71.38553859468891</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>663.7376783068825</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>702.5357390731093</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>693.6972596887376</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2133618.463005472</v>
+        <v>2126601.448113761</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>147.9405042558451</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>134.9314523901459</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>47.14167849255889</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>124.1699884042476</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>350.666752269543</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>13.62152856464951</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.13027643502261</v>
+        <v>84.45262105857543</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>96.33626969157035</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1192,13 +1192,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>271.2281977424745</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.66385641544604</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>48.27083703815669</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>96.84207451769328</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>217.2180523841303</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135.5535868730193</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>122.9350959869827</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>276.7628978440584</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.9073576508141</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>14.7366432835706</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>66.140852155354</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>6.924765229694492</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.61819542350003</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>67.62960647440822</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>80.75310111984422</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>3.347695664762796</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>89.31984007417549</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>88.86494278824944</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>175.0698676614152</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>206.3159295446101</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2547.714238234541</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2547.714238234541</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2293.952452872632</v>
       </c>
       <c r="V2" t="n">
-        <v>2075.886732147294</v>
+        <v>1962.889565529061</v>
       </c>
       <c r="W2" t="n">
-        <v>1723.11807687718</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="X2" t="n">
-        <v>1349.6523186161</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.5129866402885</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.0202652891861</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>248.4507863814656</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>101.5608388835552</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>602.704753495073</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1309.714918859356</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C5" t="n">
-        <v>940.7524019189439</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D5" t="n">
-        <v>582.4867033121934</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.200144220494</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319.1723320447962</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>150.2361491168893</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>150.2361491168893</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>150.2361491168893</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F7" t="n">
-        <v>150.2361491168893</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>959.5129866402885</v>
+        <v>1330.912423534856</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>961.949906594444</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>961.949906594444</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>576.1616539961997</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>165.1757492065921</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>151.252345145183</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>151.252345145183</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332394</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304457</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>1717.512263598977</v>
       </c>
       <c r="W8" t="n">
-        <v>1719.57858496549</v>
+        <v>1717.512263598977</v>
       </c>
       <c r="X8" t="n">
-        <v>1346.11282670441</v>
+        <v>1717.512263598977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1346.11282670441</v>
+        <v>1717.512263598977</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>247.5125998356232</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C10" t="n">
-        <v>247.5125998356232</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>649.953643809393</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>649.953643809393</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>649.953643809393</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>429.1610646658629</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5023,34 +5023,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>843.1711433963917</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>1024.819608226631</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>1024.819608226631</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>1024.819608226631</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,22 +5263,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514079</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>537.2200865194189</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>368.2839035915121</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>368.2839035915121</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.123691414372</v>
+        <v>537.2200865194189</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5515,13 +5515,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>475.6246508103599</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>247.6350999123426</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,34 +5737,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864553</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4094.598000559212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>4749.779469576118</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4749.779469576118</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4495.094981370231</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4495.094981370231</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4495.094981370231</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4274.302402226701</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,10 +5974,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5989,19 +5989,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L24" t="n">
-        <v>1024.771599890052</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>112.1025897265188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,46 +6211,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011336</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1771.104817265284</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>2050.644882483981</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1096.475226584133</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C28" t="n">
-        <v>927.5390436562259</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D28" t="n">
-        <v>777.4224042438901</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E28" t="n">
-        <v>629.509310661497</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F28" t="n">
-        <v>482.6193631635866</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>314.4440414834072</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>164.0260330313505</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6423,13 +6423,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>1491.921558204676</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557902</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="Y28" t="n">
-        <v>1278.123691414372</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,31 +6451,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6487,7 +6487,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>316.9584588710877</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3777.447355009191</v>
+        <v>333.7051469529988</v>
       </c>
       <c r="C31" t="n">
-        <v>3777.447355009191</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>3627.330715596855</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>3627.330715596855</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>3627.330715596855</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V31" t="n">
-        <v>4606.170084808406</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W31" t="n">
-        <v>4316.752914771445</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X31" t="n">
-        <v>4088.763363873428</v>
+        <v>736.1461909267687</v>
       </c>
       <c r="Y31" t="n">
-        <v>3867.970784729898</v>
+        <v>515.3536117832385</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1689.561836756086</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>2019.424464420119</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O33" t="n">
-        <v>2298.964529638816</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>475.7924673804756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1495.534759785415</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1495.534759785415</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>986.0022165609664</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>696.5850465240057</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>696.5850465240057</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>475.7924673804756</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,16 +6949,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>167.8887746690279</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>316.9584588710877</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7171,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7189,16 +7189,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147082</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L39" t="n">
-        <v>1026.505047571597</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M39" t="n">
-        <v>1333.825180851559</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>1663.687808515592</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352016</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150552</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.0324822735078</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
@@ -7405,10 +7405,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7435,28 +7435,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383447</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>498.168852875299</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>208.7516828383384</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>208.7516828383384</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7672,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141293</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.8632439327646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>955.6558230762947</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>955.6558230762947</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>955.6558230762947</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>734.8632439327646</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142013</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270185</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028816</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>127.646125010065</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>91.23759968302096</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9248,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>199.7396287231153</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>199.7396287231157</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L24" t="n">
-        <v>104.6241510367947</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711655</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>73.53204524670059</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>29.47535963978228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>199.7396287231153</v>
       </c>
       <c r="P33" t="n">
-        <v>32.78140656352457</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>29.47535963978225</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>381.3739760657742</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>392.1113620226429</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>360.5026862907247</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>124.705486540696</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>69.30494595246074</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.278393308918</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>23.49886665958651</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>9.760100492532558</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.924622531123163</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>130.6844047393606</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>44.278393308918</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>279.5982331068965</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.21378475843727</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>99.61721462421961</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>86.49371997878362</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>106.61665673903</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>57.11412257239368</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>90.96703739368786</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>77.06777566241277</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>45.8217137792179</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862099.292332369</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862099.292332369</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862099.2923323693</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.2306459073</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="H2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="J2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="K2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="L2" t="n">
-        <v>527889.2306459071</v>
-      </c>
       <c r="M2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="N2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.2306459072</v>
       </c>
-      <c r="O2" t="n">
-        <v>527889.2306459073</v>
-      </c>
       <c r="P2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459068</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865243</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
@@ -26441,22 +26441,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-284256.6304060871</v>
+        <v>-284256.6304060869</v>
       </c>
       <c r="C6" t="n">
-        <v>305711.2488084573</v>
+        <v>305711.2488084571</v>
       </c>
       <c r="D6" t="n">
-        <v>305711.2488084572</v>
+        <v>305711.2488084571</v>
       </c>
       <c r="E6" t="n">
-        <v>-111432.7393665765</v>
+        <v>-112407.3306262976</v>
       </c>
       <c r="F6" t="n">
-        <v>413727.2971103197</v>
+        <v>412752.7058505983</v>
       </c>
       <c r="G6" t="n">
-        <v>413727.2971103197</v>
+        <v>412752.7058505982</v>
       </c>
       <c r="H6" t="n">
-        <v>413727.2971103195</v>
+        <v>412752.7058505981</v>
       </c>
       <c r="I6" t="n">
-        <v>413727.2971103197</v>
+        <v>412752.7058505979</v>
       </c>
       <c r="J6" t="n">
-        <v>237304.0779177269</v>
+        <v>236329.4866580049</v>
       </c>
       <c r="K6" t="n">
-        <v>413727.2971103197</v>
+        <v>412752.7058505981</v>
       </c>
       <c r="L6" t="n">
-        <v>413727.2971103197</v>
+        <v>412752.7058505979</v>
       </c>
       <c r="M6" t="n">
-        <v>278926.2818764825</v>
+        <v>277951.6906167611</v>
       </c>
       <c r="N6" t="n">
-        <v>413727.2971103197</v>
+        <v>412752.7058505979</v>
       </c>
       <c r="O6" t="n">
-        <v>413727.29711032</v>
+        <v>412752.7058505982</v>
       </c>
       <c r="P6" t="n">
-        <v>413727.2971103195</v>
+        <v>412752.7058505977</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>26.47520855312646</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>192.820806079989</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>120.168123766492</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27593,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>162.1118858377301</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>31.26361780271878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>393.2545171770619</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>117.1795258240283</v>
+        <v>82.85718120047548</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>55.59504655329084</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>78.01277097493846</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1681237664912</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>203.8668062856713</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047525</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932186</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>438.0694836745878</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>334.7395399415897</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35737,16 +35737,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>373.6013019241291</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>482.1033309642235</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>274.915516674262</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>532.9342021211286</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L24" t="n">
-        <v>353.881855992819</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>280.6254601782252</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>180.0507982277215</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>482.1033309642235</v>
       </c>
       <c r="P33" t="n">
-        <v>239.8748214950492</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>71.38553859468891</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>663.7376783068825</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>702.5357390731093</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>693.6972596887376</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2126601.448113761</v>
+        <v>2131540.710962792</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.13835619566999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>147.9405042558451</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>47.14167849255889</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>86.11283245544973</v>
       </c>
       <c r="G7" t="n">
-        <v>84.45262105857543</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>5.511247540011504</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>96.33626969157035</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.66385641544604</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.31590541686218</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>96.84207451769328</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>122.9350959869827</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>206.8064269214858</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>39.55960582285816</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>100.9403049819701</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>6.924765229694492</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>128.4285848360769</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>67.62960647440822</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>31.42218700821035</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3006,16 +3006,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.347695664762796</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>95.02525064967651</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>122.65197883716</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1610.120910258947</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>864.8978292757404</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>446.9340211739272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>119.7393012099301</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2547.714238234541</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2547.714238234541</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2293.952452872632</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1962.889565529061</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1610.120910258947</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1610.120910258947</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1610.120910258947</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>396.3638799638587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>248.4507863814656</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>101.5608388835552</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4664,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>288.8387344486664</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240413</v>
+        <v>140.9256408662733</v>
       </c>
       <c r="F7" t="n">
-        <v>433.3259431261309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1330.912423534856</v>
+        <v>2113.17425859277</v>
       </c>
       <c r="C8" t="n">
-        <v>961.949906594444</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>961.949906594444</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>576.1616539961997</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>165.1757492065921</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>151.252345145183</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>151.252345145183</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332394</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304457</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942548</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598977</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="W8" t="n">
-        <v>1717.512263598977</v>
+        <v>2113.17425859277</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.512263598977</v>
+        <v>2113.17425859277</v>
       </c>
       <c r="Y8" t="n">
-        <v>1717.512263598977</v>
+        <v>2113.17425859277</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614631</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.8624625746712</v>
+        <v>520.9088977430001</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.128984206434</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.128984206434</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.128984206434</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.128984206434</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064349</v>
+        <v>702.5573625732399</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>537.2200865194189</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>368.2839035915121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>368.2839035915121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609664</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>986.0022165609664</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>758.0126656629491</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>537.2200865194189</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,28 +5500,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>410.8745301331628</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>879.5496456007323</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,40 +5974,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>485.5200852635876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6174,16 +6174,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
@@ -6223,34 +6223,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>485.5200852635876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>861.4909633328887</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C28" t="n">
-        <v>692.5547804049818</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>542.438140992646</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6423,13 +6423,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>1491.921558204676</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X28" t="n">
-        <v>1263.932007306658</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y28" t="n">
-        <v>1043.139428163128</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,19 +6454,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6487,7 +6487,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6560,7 +6560,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>333.7051469529988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1467.176687721326</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1267.256677636879</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1043.471262426384</v>
       </c>
       <c r="U31" t="n">
-        <v>964.135741824786</v>
+        <v>754.3426236399425</v>
       </c>
       <c r="V31" t="n">
-        <v>964.135741824786</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="W31" t="n">
-        <v>964.135741824786</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X31" t="n">
-        <v>736.1461909267687</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.3536117832385</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1495.534759785415</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1495.534759785415</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1271.749344574921</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6937,13 +6937,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,25 +7162,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>485.5200852635876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>1402.931168891562</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,34 +7405,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7596,22 +7596,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
   </sheetData>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270185</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028816</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>127.646125010065</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>253.7371603504748</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>124.3400780863228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>50.9665916631602</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>124.705486540696</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520984</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>23.49886665958651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>79.43092547709159</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>181.9879552355311</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>78.89167519996717</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>279.5982331068965</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>90.15606851601794</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.61721462421961</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>78.54216539558243</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.61665673903</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>157.1123926741515</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="9">
@@ -26316,25 +26316,25 @@
         <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
         <v>527889.2306459072</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459073</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
         <v>527889.2306459069</v>
@@ -26343,16 +26343,16 @@
         <v>527889.2306459071</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
         <v>527889.2306459068</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865243</v>
+        <v>165632.8677865245</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
@@ -26441,13 +26441,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-284256.6304060869</v>
       </c>
       <c r="C6" t="n">
-        <v>305711.2488084571</v>
+        <v>305711.2488084572</v>
       </c>
       <c r="D6" t="n">
-        <v>305711.2488084571</v>
+        <v>305711.2488084574</v>
       </c>
       <c r="E6" t="n">
-        <v>-112407.3306262976</v>
+        <v>-111530.1984925485</v>
       </c>
       <c r="F6" t="n">
-        <v>412752.7058505983</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="G6" t="n">
-        <v>412752.7058505982</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="H6" t="n">
-        <v>412752.7058505981</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="I6" t="n">
-        <v>412752.7058505979</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="J6" t="n">
-        <v>236329.4866580049</v>
+        <v>237206.6187917544</v>
       </c>
       <c r="K6" t="n">
-        <v>412752.7058505981</v>
+        <v>413629.8379843475</v>
       </c>
       <c r="L6" t="n">
-        <v>412752.7058505979</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="M6" t="n">
-        <v>277951.6906167611</v>
+        <v>278828.8227505102</v>
       </c>
       <c r="N6" t="n">
-        <v>412752.7058505979</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="O6" t="n">
-        <v>412752.7058505982</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="P6" t="n">
-        <v>412752.7058505977</v>
+        <v>413629.8379843473</v>
       </c>
     </row>
   </sheetData>
@@ -26740,25 +26740,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>86.79296004919127</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>26.47520855312646</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>120.168123766492</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>59.30821556748151</v>
       </c>
       <c r="G7" t="n">
-        <v>82.85718120047548</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>359.7616442309961</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>55.59504655329084</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481161</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1681237664912</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853695</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352326</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28316,7 +28316,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.298977755714201e-12</v>
       </c>
     </row>
     <row r="14">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932186</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7395399415897</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>460.8305752819994</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>274.915516674262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
